--- a/Data_Extraction_Only.xlsx
+++ b/Data_Extraction_Only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyMasterDegreeJourney\Second year\Semester 1\Graduation research\Research logs\SLR_Analysis_of_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E19F2E47-CE4A-4694-9C90-1D806A1851D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{251E3C24-1E8F-4BFC-BDDB-A6682F2D9F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="399">
   <si>
     <t>Rayyan_key</t>
   </si>
@@ -1689,6 +1689,10 @@
 α₃/α₁ constrained to powers of two
 4 inference timesteps
 Raw signal → TAE → ternary spikes → QT-SNN; STBP training; learnable threshold scaling &amp; spike amplitude; quantized inference with bit-shift operations</t>
+  </si>
+  <si>
+    <t>Surrogate gradient
+ANN-to-SNN Conversion Method</t>
   </si>
 </sst>
 </file>
@@ -2065,15 +2069,15 @@
   </sheetPr>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="I9" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.26953125" style="3" customWidth="1"/>
     <col min="2" max="3" width="8.7265625" style="3"/>
-    <col min="4" max="4" width="14.90625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="3"/>
     <col min="6" max="6" width="17.26953125" style="3" customWidth="1"/>
     <col min="7" max="8" width="8.7265625" style="3"/>
@@ -2279,7 +2283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="391.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="319" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="290" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="290" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>100</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>125</v>
       </c>
@@ -2623,7 +2627,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>145</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="203" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>166</v>
       </c>
@@ -2798,7 +2802,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>186</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>206</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>227</v>
       </c>
@@ -3065,7 +3069,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="145" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>243</v>
       </c>
@@ -3097,7 +3101,7 @@
         <v>250</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>38</v>
+        <v>398</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>251</v>
@@ -3154,7 +3158,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>265</v>
       </c>
@@ -3241,7 +3245,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>283</v>
       </c>
@@ -3327,7 +3331,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="261" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>299</v>
       </c>
@@ -3413,7 +3417,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>318</v>
       </c>
@@ -3493,7 +3497,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="203" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" ht="174" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>332</v>
       </c>
@@ -3663,7 +3667,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="203" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" ht="174" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>365</v>
       </c>
@@ -3749,7 +3753,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>382</v>
       </c>
